--- a/work/毕业设计相关文档/逆向索引例子.xlsx
+++ b/work/毕业设计相关文档/逆向索引例子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\opensource\ml\Machine-Learning-Note\work\毕业设计相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9F06860-EB64-499F-B3B0-98418F7070B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00EAA73E-54F9-42B9-A247-3FB2E066B932}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="0" windowWidth="21864" windowHeight="9372" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6792" yWindow="0" windowWidth="21864" windowHeight="9372" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>文档编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +272,58 @@
   </si>
   <si>
     <t>顺序关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式:[关键词ID,TF-IDF值],表示当前答案中TF-IDF值前十的关键词信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_word_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式:[文档ID,关键词TF-IDF值],表示所有包含该关键词的文档信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93784EA-39B4-4D15-8CBB-C950367D6659}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1318,4 +1372,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676AF1F2-D63E-4656-BE3E-8DC308A1C626}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FF212C-7554-46B6-B177-4F756FB85DD8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/work/毕业设计相关文档/逆向索引例子.xlsx
+++ b/work/毕业设计相关文档/逆向索引例子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\opensource\ml\Machine-Learning-Note\work\毕业设计相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00EAA73E-54F9-42B9-A247-3FB2E066B932}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{822FA13A-A1EE-4978-8BD7-553B7B4EA41E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6792" yWindow="0" windowWidth="21864" windowHeight="9372" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7728" yWindow="0" windowWidth="21864" windowHeight="9372" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>文档编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +325,65 @@
   </si>
   <si>
     <t>格式:[文档ID,关键词TF-IDF值],表示所有包含该关键词的文档信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User-Agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Referrer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accept-Encoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accept-Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep-alive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/html,application/xhml+xml,application/xml;q=0.9,image/webp,*/*;q=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:59.0) Gecko/20100101 Firefox/59.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-CN,zh;q=0.8,zh-TW;q=0.7,zh-HK;q=0.5,en-US;q=0.3,en;q=0.2</t>
+  </si>
+  <si>
+    <t>gzip, deflate, br</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +402,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -365,18 +434,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -720,6 +796,95 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE84743-5899-4AD9-A853-D92DB285B4A7}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{99A14A3F-5037-4980-AFDC-FA6EFABAD739}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{3D7A8D97-F989-47D5-B681-D8D0935BAD18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
@@ -1433,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FF212C-7554-46B6-B177-4F756FB85DD8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
